--- a/Listas de precios/minorista/DRYWALL NAC..xlsx
+++ b/Listas de precios/minorista/DRYWALL NAC..xlsx
@@ -619,7 +619,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
       <c r="F1" s="5" t="n"/>
       <c r="G1" s="5" t="n"/>

--- a/Listas de precios/minorista/DRYWALL NAC..xlsx
+++ b/Listas de precios/minorista/DRYWALL NAC..xlsx
@@ -619,7 +619,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
       <c r="F1" s="5" t="n"/>
       <c r="G1" s="5" t="n"/>

--- a/Listas de precios/minorista/DRYWALL NAC..xlsx
+++ b/Listas de precios/minorista/DRYWALL NAC..xlsx
@@ -619,7 +619,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="F1" s="5" t="n"/>
       <c r="G1" s="5" t="n"/>
